--- a/Code/Results/Cases/Case_0_97/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_97/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9644704939721729</v>
+        <v>1.020187983908264</v>
       </c>
       <c r="D2">
-        <v>0.9742257278361018</v>
+        <v>1.028019513462228</v>
       </c>
       <c r="E2">
-        <v>0.9758913280520634</v>
+        <v>1.021231247711937</v>
       </c>
       <c r="F2">
-        <v>0.9607177138848489</v>
+        <v>1.034508892943463</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032737644969871</v>
+        <v>1.024714453624212</v>
       </c>
       <c r="J2">
-        <v>0.9877684261154822</v>
+        <v>1.025386507826116</v>
       </c>
       <c r="K2">
-        <v>0.986056213841098</v>
+        <v>1.030837548503848</v>
       </c>
       <c r="L2">
-        <v>0.9876970763814314</v>
+        <v>1.024069188873236</v>
       </c>
       <c r="M2">
-        <v>0.9727528672452177</v>
+        <v>1.037308163757292</v>
       </c>
       <c r="N2">
-        <v>1.000158886235918</v>
+        <v>1.012546891296607</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9719588031534675</v>
+        <v>1.021407650989037</v>
       </c>
       <c r="D3">
-        <v>0.9819039242259152</v>
+        <v>1.029206442331322</v>
       </c>
       <c r="E3">
-        <v>0.9820084763298698</v>
+        <v>1.022270910416079</v>
       </c>
       <c r="F3">
-        <v>0.9721859509371432</v>
+        <v>1.036038823618318</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036384804966463</v>
+        <v>1.024898766294557</v>
       </c>
       <c r="J3">
-        <v>0.9932442273409579</v>
+        <v>1.026241844292395</v>
       </c>
       <c r="K3">
-        <v>0.9927737064904401</v>
+        <v>1.031831301572135</v>
       </c>
       <c r="L3">
-        <v>0.9928768583733204</v>
+        <v>1.024914621453541</v>
       </c>
       <c r="M3">
-        <v>0.9831875381915517</v>
+        <v>1.038645378321752</v>
       </c>
       <c r="N3">
-        <v>1.001960767407577</v>
+        <v>1.012828302403916</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9765411433893771</v>
+        <v>1.022191179941</v>
       </c>
       <c r="D4">
-        <v>0.9865650949814703</v>
+        <v>1.029966393190839</v>
       </c>
       <c r="E4">
-        <v>0.9857552665781441</v>
+        <v>1.022939141686442</v>
       </c>
       <c r="F4">
-        <v>0.9790599933489905</v>
+        <v>1.037011838863312</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038505040056785</v>
+        <v>1.025007816113666</v>
       </c>
       <c r="J4">
-        <v>0.9965645796374787</v>
+        <v>1.02678919751559</v>
       </c>
       <c r="K4">
-        <v>0.9968284183614253</v>
+        <v>1.032465712636473</v>
       </c>
       <c r="L4">
-        <v>0.9960287087033916</v>
+        <v>1.025456590957934</v>
       </c>
       <c r="M4">
-        <v>0.9894178931990748</v>
+        <v>1.039493247414664</v>
       </c>
       <c r="N4">
-        <v>1.003053485438648</v>
+        <v>1.013008375584385</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9784115592058269</v>
+        <v>1.022519230798228</v>
       </c>
       <c r="D5">
-        <v>0.9884595960292722</v>
+        <v>1.030283961230074</v>
       </c>
       <c r="E5">
-        <v>0.987285509890189</v>
+        <v>1.023219000284593</v>
       </c>
       <c r="F5">
-        <v>0.9818345116498077</v>
+        <v>1.037416867051381</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039345210830702</v>
+        <v>1.025051222160216</v>
       </c>
       <c r="J5">
-        <v>0.9979131712215601</v>
+        <v>1.027017855090951</v>
       </c>
       <c r="K5">
-        <v>0.9984711749941302</v>
+        <v>1.032730372904478</v>
       </c>
       <c r="L5">
-        <v>0.9973113277397672</v>
+        <v>1.025683229274953</v>
       </c>
       <c r="M5">
-        <v>0.9919269921734513</v>
+        <v>1.039845555046187</v>
       </c>
       <c r="N5">
-        <v>1.003497323446284</v>
+        <v>1.013083599114939</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9787225017699167</v>
+        <v>1.022574233529033</v>
       </c>
       <c r="D6">
-        <v>0.988774087898017</v>
+        <v>1.03033717046023</v>
       </c>
       <c r="E6">
-        <v>0.9875399540300427</v>
+        <v>1.023265927594014</v>
       </c>
       <c r="F6">
-        <v>0.9822939894160544</v>
+        <v>1.037484637754806</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039483432239958</v>
+        <v>1.02505836740066</v>
       </c>
       <c r="J6">
-        <v>0.9981369845067359</v>
+        <v>1.027056163031493</v>
       </c>
       <c r="K6">
-        <v>0.998743575292046</v>
+        <v>1.032774690984006</v>
       </c>
       <c r="L6">
-        <v>0.9975243331299093</v>
+        <v>1.025721212449738</v>
       </c>
       <c r="M6">
-        <v>0.9923421882851832</v>
+        <v>1.039904467269643</v>
       </c>
       <c r="N6">
-        <v>1.003570984170665</v>
+        <v>1.013096201486147</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9765663479008507</v>
+        <v>1.022195568637305</v>
       </c>
       <c r="D7">
-        <v>0.9865906552156714</v>
+        <v>1.029970644053923</v>
       </c>
       <c r="E7">
-        <v>0.9857758836010859</v>
+        <v>1.022942885343491</v>
       </c>
       <c r="F7">
-        <v>0.9790975018357191</v>
+        <v>1.037017266654247</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038516460404469</v>
+        <v>1.025008405680676</v>
       </c>
       <c r="J7">
-        <v>0.9965827783581812</v>
+        <v>1.026792258529592</v>
       </c>
       <c r="K7">
-        <v>0.9968506026592061</v>
+        <v>1.032469257058876</v>
       </c>
       <c r="L7">
-        <v>0.9960460075250698</v>
+        <v>1.02545962403318</v>
       </c>
       <c r="M7">
-        <v>0.9894518357180397</v>
+        <v>1.039497971182823</v>
       </c>
       <c r="N7">
-        <v>1.003059474786988</v>
+        <v>1.013009382602635</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9670604179908308</v>
+        <v>1.020601360574872</v>
       </c>
       <c r="D8">
-        <v>0.976889974846073</v>
+        <v>1.028422323513221</v>
       </c>
       <c r="E8">
-        <v>0.9780062982823201</v>
+        <v>1.021583545505672</v>
       </c>
       <c r="F8">
-        <v>0.9647172654223085</v>
+        <v>1.035029469611875</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034024110373291</v>
+        <v>1.024778861800762</v>
       </c>
       <c r="J8">
-        <v>0.9896692739874098</v>
+        <v>1.025676844848813</v>
       </c>
       <c r="K8">
-        <v>0.9883923607824898</v>
+        <v>1.031175185502794</v>
       </c>
       <c r="L8">
-        <v>0.9894926667458098</v>
+        <v>1.024355965849289</v>
       </c>
       <c r="M8">
-        <v>0.9763973679476099</v>
+        <v>1.03776370202266</v>
       </c>
       <c r="N8">
-        <v>1.000784354578681</v>
+        <v>1.012642415980874</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9478604575387447</v>
+        <v>1.017747988211646</v>
       </c>
       <c r="D9">
-        <v>0.9569115194688813</v>
+        <v>1.025631340423472</v>
       </c>
       <c r="E9">
-        <v>0.9623398096212568</v>
+        <v>1.019153194845662</v>
       </c>
       <c r="F9">
-        <v>0.9342065979457763</v>
+        <v>1.031395373929443</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023875838448132</v>
+        <v>1.024295812244497</v>
       </c>
       <c r="J9">
-        <v>0.9753989789341774</v>
+        <v>1.023663979802029</v>
       </c>
       <c r="K9">
-        <v>0.9707446313161683</v>
+        <v>1.028828117282656</v>
       </c>
       <c r="L9">
-        <v>0.9760749529317966</v>
+        <v>1.022371726555801</v>
       </c>
       <c r="M9">
-        <v>0.9484656567398907</v>
+        <v>1.034573046119411</v>
       </c>
       <c r="N9">
-        <v>0.996089704105391</v>
+        <v>1.011980118202319</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9324486631564765</v>
+        <v>1.015815001574533</v>
       </c>
       <c r="D10">
-        <v>0.940455053269439</v>
+        <v>1.02372731865093</v>
       </c>
       <c r="E10">
-        <v>0.9497709453341057</v>
+        <v>1.017508579499424</v>
       </c>
       <c r="F10">
-        <v>0.9081549619285975</v>
+        <v>1.028882048800113</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01470255898122</v>
+        <v>1.023920390371595</v>
       </c>
       <c r="J10">
-        <v>0.9636247666678118</v>
+        <v>1.022289328102427</v>
       </c>
       <c r="K10">
-        <v>0.9559896059469919</v>
+        <v>1.027217346872778</v>
       </c>
       <c r="L10">
-        <v>0.965110453035729</v>
+        <v>1.021021573354788</v>
       </c>
       <c r="M10">
-        <v>0.9244072796696863</v>
+        <v>1.032353273244774</v>
       </c>
       <c r="N10">
-        <v>0.9922182612340325</v>
+        <v>1.01152776530346</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9247144393197962</v>
+        <v>1.014970455486736</v>
       </c>
       <c r="D11">
-        <v>0.9320294391574567</v>
+        <v>1.022892266142729</v>
       </c>
       <c r="E11">
-        <v>0.9434580293554024</v>
+        <v>1.016790456793382</v>
       </c>
       <c r="F11">
-        <v>0.8944731697756605</v>
+        <v>1.0277717040162</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.009730951647</v>
+        <v>1.023745015550867</v>
       </c>
       <c r="J11">
-        <v>0.9575930148840376</v>
+        <v>1.021686104073031</v>
       </c>
       <c r="K11">
-        <v>0.9483580677568043</v>
+        <v>1.026508652269806</v>
       </c>
       <c r="L11">
-        <v>0.9595312794680286</v>
+        <v>1.020430265352416</v>
       </c>
       <c r="M11">
-        <v>0.9117031927666041</v>
+        <v>1.031369581687988</v>
       </c>
       <c r="N11">
-        <v>0.9902358780506085</v>
+        <v>1.011329252993937</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.921603164806943</v>
+        <v>1.014655596203209</v>
       </c>
       <c r="D12">
-        <v>0.9286039734987748</v>
+        <v>1.022580470162378</v>
       </c>
       <c r="E12">
-        <v>0.9409163554742572</v>
+        <v>1.016522794949769</v>
       </c>
       <c r="F12">
-        <v>0.8888397792735543</v>
+        <v>1.027355906890876</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.007655620738364</v>
+        <v>1.023677933705406</v>
       </c>
       <c r="J12">
-        <v>0.9551404752702433</v>
+        <v>1.02146081913837</v>
       </c>
       <c r="K12">
-        <v>0.9452399501523182</v>
+        <v>1.026243699142766</v>
       </c>
       <c r="L12">
-        <v>0.9572703515801256</v>
+        <v>1.020209605268778</v>
       </c>
       <c r="M12">
-        <v>0.906458915014119</v>
+        <v>1.031000763507274</v>
       </c>
       <c r="N12">
-        <v>0.9894300287494264</v>
+        <v>1.01125511335634</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9222834199874853</v>
+        <v>1.014723187338724</v>
       </c>
       <c r="D13">
-        <v>0.9293547990771821</v>
+        <v>1.022647425247508</v>
       </c>
       <c r="E13">
-        <v>0.9414722031294948</v>
+        <v>1.016580251225801</v>
       </c>
       <c r="F13">
-        <v>0.890078179927595</v>
+        <v>1.027445249949818</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.008113227098991</v>
+        <v>1.023692411018036</v>
       </c>
       <c r="J13">
-        <v>0.9556780546973596</v>
+        <v>1.021509199095768</v>
       </c>
       <c r="K13">
-        <v>0.9459241909523942</v>
+        <v>1.026300610422804</v>
       </c>
       <c r="L13">
-        <v>0.9577655478793976</v>
+        <v>1.020256984151251</v>
       </c>
       <c r="M13">
-        <v>0.9076124475497273</v>
+        <v>1.031080032348527</v>
       </c>
       <c r="N13">
-        <v>0.9896066550068674</v>
+        <v>1.011271034922099</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9244628391876479</v>
+        <v>1.014944452865071</v>
       </c>
       <c r="D14">
-        <v>0.9317532362720088</v>
+        <v>1.022866526211028</v>
       </c>
       <c r="E14">
-        <v>0.9432525457560161</v>
+        <v>1.016768350642834</v>
       </c>
       <c r="F14">
-        <v>0.8940204947429693</v>
+        <v>1.027737403063597</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009564785118133</v>
+        <v>1.02373951020534</v>
       </c>
       <c r="J14">
-        <v>0.9573952656051208</v>
+        <v>1.021667506972115</v>
       </c>
       <c r="K14">
-        <v>0.9481069842990538</v>
+        <v>1.026486786253958</v>
       </c>
       <c r="L14">
-        <v>0.9593488147384833</v>
+        <v>1.020412046476358</v>
       </c>
       <c r="M14">
-        <v>0.9112820744115537</v>
+        <v>1.031339165352739</v>
       </c>
       <c r="N14">
-        <v>0.9901708977002609</v>
+        <v>1.011323132855769</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.925770524820375</v>
+        <v>1.015080627803149</v>
       </c>
       <c r="D15">
-        <v>0.9331872872429694</v>
+        <v>1.02300130597635</v>
       </c>
       <c r="E15">
-        <v>0.9443204461942838</v>
+        <v>1.016884122537073</v>
       </c>
       <c r="F15">
-        <v>0.8963678577523715</v>
+        <v>1.027916960664788</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010425302765102</v>
+        <v>1.023768272065746</v>
       </c>
       <c r="J15">
-        <v>0.9584219732777014</v>
+        <v>1.02176488330652</v>
       </c>
       <c r="K15">
-        <v>0.9494099768776446</v>
+        <v>1.026601267594866</v>
       </c>
       <c r="L15">
-        <v>0.9602964780907427</v>
+        <v>1.020507449518212</v>
       </c>
       <c r="M15">
-        <v>0.9134652504267413</v>
+        <v>1.031498369557067</v>
       </c>
       <c r="N15">
-        <v>0.9905082817297864</v>
+        <v>1.01135517846304</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9329342110083518</v>
+        <v>1.015870890313602</v>
       </c>
       <c r="D16">
-        <v>0.9409800037948746</v>
+        <v>1.023782512683991</v>
       </c>
       <c r="E16">
-        <v>0.9501670736284562</v>
+        <v>1.017556111095169</v>
       </c>
       <c r="F16">
-        <v>0.9089994347304801</v>
+        <v>1.028955269644768</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.015006125861716</v>
+        <v>1.023931758215562</v>
       </c>
       <c r="J16">
-        <v>0.9640005169399499</v>
+        <v>1.022329192044392</v>
       </c>
       <c r="K16">
-        <v>0.9564633266599454</v>
+        <v>1.027264141958601</v>
       </c>
       <c r="L16">
-        <v>0.9654588708942702</v>
+        <v>1.021060674211793</v>
       </c>
       <c r="M16">
-        <v>0.925189879692796</v>
+        <v>1.03241807915563</v>
       </c>
       <c r="N16">
-        <v>0.9923417761755285</v>
+        <v>1.011540883722472</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9371046946208632</v>
+        <v>1.016364563906313</v>
       </c>
       <c r="D17">
-        <v>0.9454706734226359</v>
+        <v>1.024269686224758</v>
       </c>
       <c r="E17">
-        <v>0.9535688876213062</v>
+        <v>1.017976014310292</v>
       </c>
       <c r="F17">
-        <v>0.9161864596384682</v>
+        <v>1.029600632285539</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.017573545924506</v>
+        <v>1.024030868016969</v>
       </c>
       <c r="J17">
-        <v>0.9672145121609778</v>
+        <v>1.022681014784317</v>
       </c>
       <c r="K17">
-        <v>0.9605074829154898</v>
+        <v>1.027676923184013</v>
       </c>
       <c r="L17">
-        <v>0.9684431332711191</v>
+        <v>1.021405895922166</v>
       </c>
       <c r="M17">
-        <v>0.9318430439571966</v>
+        <v>1.032988927279602</v>
       </c>
       <c r="N17">
-        <v>0.9933983638120268</v>
+        <v>1.011656660227707</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9394419256156132</v>
+        <v>1.016651788499792</v>
       </c>
       <c r="D18">
-        <v>0.9479735187134778</v>
+        <v>1.024552825684048</v>
       </c>
       <c r="E18">
-        <v>0.9554749733891441</v>
+        <v>1.018220359791342</v>
       </c>
       <c r="F18">
-        <v>0.9201637953676012</v>
+        <v>1.02997493673063</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018981627379037</v>
+        <v>1.024087441713387</v>
       </c>
       <c r="J18">
-        <v>0.9690054994603697</v>
+        <v>1.022885457466794</v>
       </c>
       <c r="K18">
-        <v>0.9627550854072998</v>
+        <v>1.027916610771627</v>
       </c>
       <c r="L18">
-        <v>0.9701092311051057</v>
+        <v>1.021606614384589</v>
       </c>
       <c r="M18">
-        <v>0.9355192738651997</v>
+        <v>1.033319724388744</v>
       </c>
       <c r="N18">
-        <v>0.9939872167061867</v>
+        <v>1.011723936400369</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9402242230835062</v>
+        <v>1.016749602051776</v>
       </c>
       <c r="D19">
-        <v>0.9488091046837691</v>
+        <v>1.024649196630351</v>
       </c>
       <c r="E19">
-        <v>0.9561129226890671</v>
+        <v>1.018303577972612</v>
       </c>
       <c r="F19">
-        <v>0.9214872021809132</v>
+        <v>1.030102206010069</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.01944807610591</v>
+        <v>1.024106522762355</v>
       </c>
       <c r="J19">
-        <v>0.9696033715177685</v>
+        <v>1.022955037198525</v>
       </c>
       <c r="K19">
-        <v>0.9635044463893336</v>
+        <v>1.027998155519955</v>
       </c>
       <c r="L19">
-        <v>0.9706659075217643</v>
+        <v>1.021674945569252</v>
       </c>
       <c r="M19">
-        <v>0.936741584577931</v>
+        <v>1.033432151192541</v>
       </c>
       <c r="N19">
-        <v>0.9941838003608992</v>
+        <v>1.011746832897001</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.936667490407657</v>
+        <v>1.016311672746864</v>
       </c>
       <c r="D20">
-        <v>0.9450014060953381</v>
+        <v>1.024217522880034</v>
       </c>
       <c r="E20">
-        <v>0.9532123097005655</v>
+        <v>1.017931022478776</v>
       </c>
       <c r="F20">
-        <v>0.9154384972754964</v>
+        <v>1.029531611109816</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.01730771865929</v>
+        <v>1.024020362355287</v>
       </c>
       <c r="J20">
-        <v>0.9668786869145679</v>
+        <v>1.022643347276369</v>
       </c>
       <c r="K20">
-        <v>0.9600855651908288</v>
+        <v>1.027632747636811</v>
       </c>
       <c r="L20">
-        <v>0.9681309742315755</v>
+        <v>1.021368923588962</v>
       </c>
       <c r="M20">
-        <v>0.9311512525810547</v>
+        <v>1.032927905365306</v>
       </c>
       <c r="N20">
-        <v>0.9932879546460346</v>
+        <v>1.011644264854996</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9238286303150958</v>
+        <v>1.014879327818716</v>
       </c>
       <c r="D21">
-        <v>0.9310563911037063</v>
+        <v>1.022802051398916</v>
       </c>
       <c r="E21">
-        <v>0.9427345423261837</v>
+        <v>1.016712985579151</v>
       </c>
       <c r="F21">
-        <v>0.8928772140236739</v>
+        <v>1.027651464590511</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.009144645594688</v>
+        <v>1.023725694340549</v>
       </c>
       <c r="J21">
-        <v>0.9568963507936329</v>
+        <v>1.021620923112159</v>
       </c>
       <c r="K21">
-        <v>0.9474732525395071</v>
+        <v>1.026432009604241</v>
       </c>
       <c r="L21">
-        <v>0.9588885904822074</v>
+        <v>1.020366412846752</v>
       </c>
       <c r="M21">
-        <v>0.9102182685207527</v>
+        <v>1.031262952268796</v>
       </c>
       <c r="N21">
-        <v>0.9900069578368563</v>
+        <v>1.011307802501592</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9142615626134655</v>
+        <v>1.013972047916141</v>
       </c>
       <c r="D22">
-        <v>0.9204293122608288</v>
+        <v>1.021902698748916</v>
       </c>
       <c r="E22">
-        <v>0.9349116729433156</v>
+        <v>1.015941829851547</v>
       </c>
       <c r="F22">
-        <v>0.8752202138543602</v>
+        <v>1.026449841592734</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.002572551149781</v>
+        <v>1.023529193492989</v>
       </c>
       <c r="J22">
-        <v>0.9492874514576258</v>
+        <v>1.020971011228389</v>
       </c>
       <c r="K22">
-        <v>0.9377610011775843</v>
+        <v>1.025667136221135</v>
       </c>
       <c r="L22">
-        <v>0.9518930674154013</v>
+        <v>1.019730172169728</v>
       </c>
       <c r="M22">
-        <v>0.8937476277293136</v>
+        <v>1.030196251276136</v>
       </c>
       <c r="N22">
-        <v>0.9875073596219668</v>
+        <v>1.011093918192645</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9195266066629014</v>
+        <v>1.01445365795338</v>
       </c>
       <c r="D23">
-        <v>0.9263052866410871</v>
+        <v>1.022380362383766</v>
       </c>
       <c r="E23">
-        <v>0.9392190625195714</v>
+        <v>1.016351145582116</v>
       </c>
       <c r="F23">
-        <v>0.8850354992621365</v>
+        <v>1.027088711094957</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.006245064329407</v>
+        <v>1.023634432106123</v>
       </c>
       <c r="J23">
-        <v>0.9534946313021507</v>
+        <v>1.021316219299909</v>
       </c>
       <c r="K23">
-        <v>0.9431423483648305</v>
+        <v>1.026073559844422</v>
       </c>
       <c r="L23">
-        <v>0.9557556207397589</v>
+        <v>1.020068023020917</v>
       </c>
       <c r="M23">
-        <v>0.9029129745275778</v>
+        <v>1.030763630966198</v>
       </c>
       <c r="N23">
-        <v>0.9888893094598793</v>
+        <v>1.011207526146224</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9368653339452918</v>
+        <v>1.016335574230312</v>
       </c>
       <c r="D24">
-        <v>0.9452138016163765</v>
+        <v>1.024241096402753</v>
       </c>
       <c r="E24">
-        <v>0.9533736693231479</v>
+        <v>1.01795135413294</v>
       </c>
       <c r="F24">
-        <v>0.9157771212037059</v>
+        <v>1.029562805370938</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.017428106196364</v>
+        <v>1.024025113228273</v>
       </c>
       <c r="J24">
-        <v>0.9670306860854588</v>
+        <v>1.022660369978987</v>
       </c>
       <c r="K24">
-        <v>0.9602765496287197</v>
+        <v>1.027652712003357</v>
       </c>
       <c r="L24">
-        <v>0.9682722520103183</v>
+        <v>1.021385631782669</v>
       </c>
       <c r="M24">
-        <v>0.9314644640117212</v>
+        <v>1.032955485241466</v>
       </c>
       <c r="N24">
-        <v>0.9933379271411626</v>
+        <v>1.011649866575904</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9531893797915457</v>
+        <v>1.01849099112684</v>
       </c>
       <c r="D25">
-        <v>0.9625107121898134</v>
+        <v>1.026360423321499</v>
       </c>
       <c r="E25">
-        <v>0.9666857705929729</v>
+        <v>1.019785731479789</v>
       </c>
       <c r="F25">
-        <v>0.9428786326366335</v>
+        <v>1.03235066496691</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026833236572476</v>
+        <v>1.024430056342645</v>
       </c>
       <c r="J25">
-        <v>0.9794017546037627</v>
+        <v>1.024190055035852</v>
       </c>
       <c r="K25">
-        <v>0.9757202854653471</v>
+        <v>1.029442917045443</v>
       </c>
       <c r="L25">
-        <v>0.9798242428097741</v>
+        <v>1.022889454452621</v>
       </c>
       <c r="M25">
-        <v>0.9564335147806631</v>
+        <v>1.035414074134527</v>
       </c>
       <c r="N25">
-        <v>0.9974063001095508</v>
+        <v>1.012153222464592</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_97/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_97/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020187983908264</v>
+        <v>0.9644704939721724</v>
       </c>
       <c r="D2">
-        <v>1.028019513462228</v>
+        <v>0.9742257278361014</v>
       </c>
       <c r="E2">
-        <v>1.021231247711937</v>
+        <v>0.9758913280520626</v>
       </c>
       <c r="F2">
-        <v>1.034508892943463</v>
+        <v>0.9607177138848485</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.024714453624212</v>
+        <v>1.032737644969871</v>
       </c>
       <c r="J2">
-        <v>1.025386507826116</v>
+        <v>0.9877684261154818</v>
       </c>
       <c r="K2">
-        <v>1.030837548503848</v>
+        <v>0.9860562138410974</v>
       </c>
       <c r="L2">
-        <v>1.024069188873236</v>
+        <v>0.9876970763814307</v>
       </c>
       <c r="M2">
-        <v>1.037308163757292</v>
+        <v>0.9727528672452174</v>
       </c>
       <c r="N2">
-        <v>1.012546891296607</v>
+        <v>1.000158886235917</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021407650989037</v>
+        <v>0.9719588031534673</v>
       </c>
       <c r="D3">
-        <v>1.029206442331322</v>
+        <v>0.9819039242259151</v>
       </c>
       <c r="E3">
-        <v>1.022270910416079</v>
+        <v>0.9820084763298692</v>
       </c>
       <c r="F3">
-        <v>1.036038823618318</v>
+        <v>0.9721859509371433</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.024898766294557</v>
+        <v>1.036384804966463</v>
       </c>
       <c r="J3">
-        <v>1.026241844292395</v>
+        <v>0.9932442273409576</v>
       </c>
       <c r="K3">
-        <v>1.031831301572135</v>
+        <v>0.9927737064904399</v>
       </c>
       <c r="L3">
-        <v>1.024914621453541</v>
+        <v>0.9928768583733198</v>
       </c>
       <c r="M3">
-        <v>1.038645378321752</v>
+        <v>0.9831875381915516</v>
       </c>
       <c r="N3">
-        <v>1.012828302403916</v>
+        <v>1.001960767407577</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022191179941</v>
+        <v>0.9765411433893769</v>
       </c>
       <c r="D4">
-        <v>1.029966393190839</v>
+        <v>0.98656509498147</v>
       </c>
       <c r="E4">
-        <v>1.022939141686442</v>
+        <v>0.9857552665781437</v>
       </c>
       <c r="F4">
-        <v>1.037011838863312</v>
+        <v>0.9790599933489904</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.025007816113666</v>
+        <v>1.038505040056785</v>
       </c>
       <c r="J4">
-        <v>1.02678919751559</v>
+        <v>0.9965645796374785</v>
       </c>
       <c r="K4">
-        <v>1.032465712636473</v>
+        <v>0.9968284183614251</v>
       </c>
       <c r="L4">
-        <v>1.025456590957934</v>
+        <v>0.9960287087033911</v>
       </c>
       <c r="M4">
-        <v>1.039493247414664</v>
+        <v>0.9894178931990746</v>
       </c>
       <c r="N4">
-        <v>1.013008375584385</v>
+        <v>1.003053485438648</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022519230798228</v>
+        <v>0.9784115592058262</v>
       </c>
       <c r="D5">
-        <v>1.030283961230074</v>
+        <v>0.9884595960292714</v>
       </c>
       <c r="E5">
-        <v>1.023219000284593</v>
+        <v>0.9872855098901885</v>
       </c>
       <c r="F5">
-        <v>1.037416867051381</v>
+        <v>0.9818345116498073</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.025051222160216</v>
+        <v>1.039345210830702</v>
       </c>
       <c r="J5">
-        <v>1.027017855090951</v>
+        <v>0.9979131712215595</v>
       </c>
       <c r="K5">
-        <v>1.032730372904478</v>
+        <v>0.9984711749941294</v>
       </c>
       <c r="L5">
-        <v>1.025683229274953</v>
+        <v>0.9973113277397663</v>
       </c>
       <c r="M5">
-        <v>1.039845555046187</v>
+        <v>0.9919269921734508</v>
       </c>
       <c r="N5">
-        <v>1.013083599114939</v>
+        <v>1.003497323446284</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022574233529033</v>
+        <v>0.9787225017699164</v>
       </c>
       <c r="D6">
-        <v>1.03033717046023</v>
+        <v>0.9887740878980169</v>
       </c>
       <c r="E6">
-        <v>1.023265927594014</v>
+        <v>0.9875399540300424</v>
       </c>
       <c r="F6">
-        <v>1.037484637754806</v>
+        <v>0.9822939894160543</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.02505836740066</v>
+        <v>1.039483432239958</v>
       </c>
       <c r="J6">
-        <v>1.027056163031493</v>
+        <v>0.9981369845067358</v>
       </c>
       <c r="K6">
-        <v>1.032774690984006</v>
+        <v>0.9987435752920459</v>
       </c>
       <c r="L6">
-        <v>1.025721212449738</v>
+        <v>0.9975243331299091</v>
       </c>
       <c r="M6">
-        <v>1.039904467269643</v>
+        <v>0.9923421882851832</v>
       </c>
       <c r="N6">
-        <v>1.013096201486147</v>
+        <v>1.003570984170665</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022195568637305</v>
+        <v>0.9765663479008507</v>
       </c>
       <c r="D7">
-        <v>1.029970644053923</v>
+        <v>0.9865906552156716</v>
       </c>
       <c r="E7">
-        <v>1.022942885343491</v>
+        <v>0.9857758836010859</v>
       </c>
       <c r="F7">
-        <v>1.037017266654247</v>
+        <v>0.9790975018357192</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.025008405680676</v>
+        <v>1.038516460404469</v>
       </c>
       <c r="J7">
-        <v>1.026792258529592</v>
+        <v>0.9965827783581813</v>
       </c>
       <c r="K7">
-        <v>1.032469257058876</v>
+        <v>0.9968506026592063</v>
       </c>
       <c r="L7">
-        <v>1.02545962403318</v>
+        <v>0.9960460075250699</v>
       </c>
       <c r="M7">
-        <v>1.039497971182823</v>
+        <v>0.9894518357180397</v>
       </c>
       <c r="N7">
-        <v>1.013009382602635</v>
+        <v>1.003059474786988</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020601360574872</v>
+        <v>0.9670604179908305</v>
       </c>
       <c r="D8">
-        <v>1.028422323513221</v>
+        <v>0.976889974846073</v>
       </c>
       <c r="E8">
-        <v>1.021583545505672</v>
+        <v>0.9780062982823198</v>
       </c>
       <c r="F8">
-        <v>1.035029469611875</v>
+        <v>0.9647172654223083</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.024778861800762</v>
+        <v>1.034024110373291</v>
       </c>
       <c r="J8">
-        <v>1.025676844848813</v>
+        <v>0.9896692739874096</v>
       </c>
       <c r="K8">
-        <v>1.031175185502794</v>
+        <v>0.9883923607824897</v>
       </c>
       <c r="L8">
-        <v>1.024355965849289</v>
+        <v>0.9894926667458095</v>
       </c>
       <c r="M8">
-        <v>1.03776370202266</v>
+        <v>0.9763973679476096</v>
       </c>
       <c r="N8">
-        <v>1.012642415980874</v>
+        <v>1.000784354578681</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017747988211646</v>
+        <v>0.947860457538745</v>
       </c>
       <c r="D9">
-        <v>1.025631340423472</v>
+        <v>0.9569115194688819</v>
       </c>
       <c r="E9">
-        <v>1.019153194845662</v>
+        <v>0.962339809621257</v>
       </c>
       <c r="F9">
-        <v>1.031395373929443</v>
+        <v>0.9342065979457772</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.024295812244497</v>
+        <v>1.023875838448132</v>
       </c>
       <c r="J9">
-        <v>1.023663979802029</v>
+        <v>0.9753989789341777</v>
       </c>
       <c r="K9">
-        <v>1.028828117282656</v>
+        <v>0.9707446313161688</v>
       </c>
       <c r="L9">
-        <v>1.022371726555801</v>
+        <v>0.9760749529317968</v>
       </c>
       <c r="M9">
-        <v>1.034573046119411</v>
+        <v>0.9484656567398915</v>
       </c>
       <c r="N9">
-        <v>1.011980118202319</v>
+        <v>0.9960897041053912</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015815001574533</v>
+        <v>0.9324486631564766</v>
       </c>
       <c r="D10">
-        <v>1.02372731865093</v>
+        <v>0.9404550532694388</v>
       </c>
       <c r="E10">
-        <v>1.017508579499424</v>
+        <v>0.9497709453341056</v>
       </c>
       <c r="F10">
-        <v>1.028882048800113</v>
+        <v>0.9081549619285976</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023920390371595</v>
+        <v>1.01470255898122</v>
       </c>
       <c r="J10">
-        <v>1.022289328102427</v>
+        <v>0.9636247666678117</v>
       </c>
       <c r="K10">
-        <v>1.027217346872778</v>
+        <v>0.9559896059469918</v>
       </c>
       <c r="L10">
-        <v>1.021021573354788</v>
+        <v>0.9651104530357287</v>
       </c>
       <c r="M10">
-        <v>1.032353273244774</v>
+        <v>0.9244072796696862</v>
       </c>
       <c r="N10">
-        <v>1.01152776530346</v>
+        <v>0.9922182612340325</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014970455486736</v>
+        <v>0.924714439319796</v>
       </c>
       <c r="D11">
-        <v>1.022892266142729</v>
+        <v>0.9320294391574564</v>
       </c>
       <c r="E11">
-        <v>1.016790456793382</v>
+        <v>0.9434580293554021</v>
       </c>
       <c r="F11">
-        <v>1.0277717040162</v>
+        <v>0.8944731697756595</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023745015550867</v>
+        <v>1.009730951647</v>
       </c>
       <c r="J11">
-        <v>1.021686104073031</v>
+        <v>0.9575930148840371</v>
       </c>
       <c r="K11">
-        <v>1.026508652269806</v>
+        <v>0.9483580677568039</v>
       </c>
       <c r="L11">
-        <v>1.020430265352416</v>
+        <v>0.9595312794680283</v>
       </c>
       <c r="M11">
-        <v>1.031369581687988</v>
+        <v>0.9117031927666032</v>
       </c>
       <c r="N11">
-        <v>1.011329252993937</v>
+        <v>0.9902358780506084</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.014655596203209</v>
+        <v>0.9216031648069436</v>
       </c>
       <c r="D12">
-        <v>1.022580470162378</v>
+        <v>0.9286039734987757</v>
       </c>
       <c r="E12">
-        <v>1.016522794949769</v>
+        <v>0.9409163554742578</v>
       </c>
       <c r="F12">
-        <v>1.027355906890876</v>
+        <v>0.8888397792735548</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023677933705406</v>
+        <v>1.007655620738365</v>
       </c>
       <c r="J12">
-        <v>1.02146081913837</v>
+        <v>0.9551404752702441</v>
       </c>
       <c r="K12">
-        <v>1.026243699142766</v>
+        <v>0.9452399501523189</v>
       </c>
       <c r="L12">
-        <v>1.020209605268778</v>
+        <v>0.9572703515801262</v>
       </c>
       <c r="M12">
-        <v>1.031000763507274</v>
+        <v>0.9064589150141199</v>
       </c>
       <c r="N12">
-        <v>1.01125511335634</v>
+        <v>0.9894300287494265</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.014723187338724</v>
+        <v>0.9222834199874851</v>
       </c>
       <c r="D13">
-        <v>1.022647425247508</v>
+        <v>0.9293547990771819</v>
       </c>
       <c r="E13">
-        <v>1.016580251225801</v>
+        <v>0.9414722031294946</v>
       </c>
       <c r="F13">
-        <v>1.027445249949818</v>
+        <v>0.8900781799275949</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023692411018036</v>
+        <v>1.008113227098991</v>
       </c>
       <c r="J13">
-        <v>1.021509199095768</v>
+        <v>0.9556780546973594</v>
       </c>
       <c r="K13">
-        <v>1.026300610422804</v>
+        <v>0.945924190952394</v>
       </c>
       <c r="L13">
-        <v>1.020256984151251</v>
+        <v>0.9577655478793975</v>
       </c>
       <c r="M13">
-        <v>1.031080032348527</v>
+        <v>0.907612447549727</v>
       </c>
       <c r="N13">
-        <v>1.011271034922099</v>
+        <v>0.9896066550068672</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.014944452865071</v>
+        <v>0.9244628391876483</v>
       </c>
       <c r="D14">
-        <v>1.022866526211028</v>
+        <v>0.9317532362720095</v>
       </c>
       <c r="E14">
-        <v>1.016768350642834</v>
+        <v>0.9432525457560166</v>
       </c>
       <c r="F14">
-        <v>1.027737403063597</v>
+        <v>0.8940204947429701</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02373951020534</v>
+        <v>1.009564785118132</v>
       </c>
       <c r="J14">
-        <v>1.021667506972115</v>
+        <v>0.9573952656051211</v>
       </c>
       <c r="K14">
-        <v>1.026486786253958</v>
+        <v>0.9481069842990544</v>
       </c>
       <c r="L14">
-        <v>1.020412046476358</v>
+        <v>0.9593488147384837</v>
       </c>
       <c r="M14">
-        <v>1.031339165352739</v>
+        <v>0.9112820744115545</v>
       </c>
       <c r="N14">
-        <v>1.011323132855769</v>
+        <v>0.990170897700261</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015080627803149</v>
+        <v>0.9257705248203755</v>
       </c>
       <c r="D15">
-        <v>1.02300130597635</v>
+        <v>0.9331872872429702</v>
       </c>
       <c r="E15">
-        <v>1.016884122537073</v>
+        <v>0.944320446194284</v>
       </c>
       <c r="F15">
-        <v>1.027916960664788</v>
+        <v>0.8963678577523729</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023768272065746</v>
+        <v>1.010425302765102</v>
       </c>
       <c r="J15">
-        <v>1.02176488330652</v>
+        <v>0.9584219732777021</v>
       </c>
       <c r="K15">
-        <v>1.026601267594866</v>
+        <v>0.9494099768776454</v>
       </c>
       <c r="L15">
-        <v>1.020507449518212</v>
+        <v>0.9602964780907429</v>
       </c>
       <c r="M15">
-        <v>1.031498369557067</v>
+        <v>0.9134652504267428</v>
       </c>
       <c r="N15">
-        <v>1.01135517846304</v>
+        <v>0.9905082817297866</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.015870890313602</v>
+        <v>0.9329342110083511</v>
       </c>
       <c r="D16">
-        <v>1.023782512683991</v>
+        <v>0.9409800037948737</v>
       </c>
       <c r="E16">
-        <v>1.017556111095169</v>
+        <v>0.9501670736284554</v>
       </c>
       <c r="F16">
-        <v>1.028955269644768</v>
+        <v>0.9089994347304793</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023931758215562</v>
+        <v>1.015006125861715</v>
       </c>
       <c r="J16">
-        <v>1.022329192044392</v>
+        <v>0.9640005169399493</v>
       </c>
       <c r="K16">
-        <v>1.027264141958601</v>
+        <v>0.9564633266599447</v>
       </c>
       <c r="L16">
-        <v>1.021060674211793</v>
+        <v>0.9654588708942695</v>
       </c>
       <c r="M16">
-        <v>1.03241807915563</v>
+        <v>0.9251898796927952</v>
       </c>
       <c r="N16">
-        <v>1.011540883722472</v>
+        <v>0.9923417761755284</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016364563906313</v>
+        <v>0.9371046946208619</v>
       </c>
       <c r="D17">
-        <v>1.024269686224758</v>
+        <v>0.9454706734226348</v>
       </c>
       <c r="E17">
-        <v>1.017976014310292</v>
+        <v>0.953568887621305</v>
       </c>
       <c r="F17">
-        <v>1.029600632285539</v>
+        <v>0.9161864596384668</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024030868016969</v>
+        <v>1.017573545924506</v>
       </c>
       <c r="J17">
-        <v>1.022681014784317</v>
+        <v>0.9672145121609769</v>
       </c>
       <c r="K17">
-        <v>1.027676923184013</v>
+        <v>0.9605074829154885</v>
       </c>
       <c r="L17">
-        <v>1.021405895922166</v>
+        <v>0.9684431332711181</v>
       </c>
       <c r="M17">
-        <v>1.032988927279602</v>
+        <v>0.9318430439571952</v>
       </c>
       <c r="N17">
-        <v>1.011656660227707</v>
+        <v>0.9933983638120266</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016651788499792</v>
+        <v>0.9394419256156132</v>
       </c>
       <c r="D18">
-        <v>1.024552825684048</v>
+        <v>0.9479735187134778</v>
       </c>
       <c r="E18">
-        <v>1.018220359791342</v>
+        <v>0.9554749733891443</v>
       </c>
       <c r="F18">
-        <v>1.02997493673063</v>
+        <v>0.9201637953676012</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024087441713387</v>
+        <v>1.018981627379037</v>
       </c>
       <c r="J18">
-        <v>1.022885457466794</v>
+        <v>0.9690054994603696</v>
       </c>
       <c r="K18">
-        <v>1.027916610771627</v>
+        <v>0.9627550854072996</v>
       </c>
       <c r="L18">
-        <v>1.021606614384589</v>
+        <v>0.9701092311051057</v>
       </c>
       <c r="M18">
-        <v>1.033319724388744</v>
+        <v>0.9355192738651998</v>
       </c>
       <c r="N18">
-        <v>1.011723936400369</v>
+        <v>0.9939872167061868</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016749602051776</v>
+        <v>0.9402242230835054</v>
       </c>
       <c r="D19">
-        <v>1.024649196630351</v>
+        <v>0.9488091046837683</v>
       </c>
       <c r="E19">
-        <v>1.018303577972612</v>
+        <v>0.9561129226890664</v>
       </c>
       <c r="F19">
-        <v>1.030102206010069</v>
+        <v>0.9214872021809123</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024106522762355</v>
+        <v>1.01944807610591</v>
       </c>
       <c r="J19">
-        <v>1.022955037198525</v>
+        <v>0.969603371517768</v>
       </c>
       <c r="K19">
-        <v>1.027998155519955</v>
+        <v>0.9635044463893327</v>
       </c>
       <c r="L19">
-        <v>1.021674945569252</v>
+        <v>0.9706659075217635</v>
       </c>
       <c r="M19">
-        <v>1.033432151192541</v>
+        <v>0.93674158457793</v>
       </c>
       <c r="N19">
-        <v>1.011746832897001</v>
+        <v>0.9941838003608989</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.016311672746864</v>
+        <v>0.9366674904076557</v>
       </c>
       <c r="D20">
-        <v>1.024217522880034</v>
+        <v>0.9450014060953368</v>
       </c>
       <c r="E20">
-        <v>1.017931022478776</v>
+        <v>0.9532123097005646</v>
       </c>
       <c r="F20">
-        <v>1.029531611109816</v>
+        <v>0.9154384972754953</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024020362355287</v>
+        <v>1.01730771865929</v>
       </c>
       <c r="J20">
-        <v>1.022643347276369</v>
+        <v>0.9668786869145669</v>
       </c>
       <c r="K20">
-        <v>1.027632747636811</v>
+        <v>0.9600855651908277</v>
       </c>
       <c r="L20">
-        <v>1.021368923588962</v>
+        <v>0.9681309742315746</v>
       </c>
       <c r="M20">
-        <v>1.032927905365306</v>
+        <v>0.9311512525810536</v>
       </c>
       <c r="N20">
-        <v>1.011644264854996</v>
+        <v>0.9932879546460343</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.014879327818716</v>
+        <v>0.9238286303150975</v>
       </c>
       <c r="D21">
-        <v>1.022802051398916</v>
+        <v>0.9310563911037077</v>
       </c>
       <c r="E21">
-        <v>1.016712985579151</v>
+        <v>0.942734542326185</v>
       </c>
       <c r="F21">
-        <v>1.027651464590511</v>
+        <v>0.8928772140236755</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023725694340549</v>
+        <v>1.009144645594688</v>
       </c>
       <c r="J21">
-        <v>1.021620923112159</v>
+        <v>0.9568963507936344</v>
       </c>
       <c r="K21">
-        <v>1.026432009604241</v>
+        <v>0.9474732525395085</v>
       </c>
       <c r="L21">
-        <v>1.020366412846752</v>
+        <v>0.9588885904822086</v>
       </c>
       <c r="M21">
-        <v>1.031262952268796</v>
+        <v>0.9102182685207543</v>
       </c>
       <c r="N21">
-        <v>1.011307802501592</v>
+        <v>0.9900069578368568</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.013972047916141</v>
+        <v>0.9142615626134659</v>
       </c>
       <c r="D22">
-        <v>1.021902698748916</v>
+        <v>0.9204293122608292</v>
       </c>
       <c r="E22">
-        <v>1.015941829851547</v>
+        <v>0.9349116729433158</v>
       </c>
       <c r="F22">
-        <v>1.026449841592734</v>
+        <v>0.8752202138543607</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023529193492989</v>
+        <v>1.002572551149781</v>
       </c>
       <c r="J22">
-        <v>1.020971011228389</v>
+        <v>0.9492874514576263</v>
       </c>
       <c r="K22">
-        <v>1.025667136221135</v>
+        <v>0.9377610011775848</v>
       </c>
       <c r="L22">
-        <v>1.019730172169728</v>
+        <v>0.9518930674154014</v>
       </c>
       <c r="M22">
-        <v>1.030196251276136</v>
+        <v>0.893747627729314</v>
       </c>
       <c r="N22">
-        <v>1.011093918192645</v>
+        <v>0.9875073596219669</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01445365795338</v>
+        <v>0.9195266066629023</v>
       </c>
       <c r="D23">
-        <v>1.022380362383766</v>
+        <v>0.9263052866410878</v>
       </c>
       <c r="E23">
-        <v>1.016351145582116</v>
+        <v>0.9392190625195719</v>
       </c>
       <c r="F23">
-        <v>1.027088711094957</v>
+        <v>0.8850354992621375</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023634432106123</v>
+        <v>1.006245064329407</v>
       </c>
       <c r="J23">
-        <v>1.021316219299909</v>
+        <v>0.9534946313021513</v>
       </c>
       <c r="K23">
-        <v>1.026073559844422</v>
+        <v>0.9431423483648311</v>
       </c>
       <c r="L23">
-        <v>1.020068023020917</v>
+        <v>0.9557556207397595</v>
       </c>
       <c r="M23">
-        <v>1.030763630966198</v>
+        <v>0.9029129745275788</v>
       </c>
       <c r="N23">
-        <v>1.011207526146224</v>
+        <v>0.9888893094598795</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016335574230312</v>
+        <v>0.9368653339452925</v>
       </c>
       <c r="D24">
-        <v>1.024241096402753</v>
+        <v>0.9452138016163771</v>
       </c>
       <c r="E24">
-        <v>1.01795135413294</v>
+        <v>0.9533736693231487</v>
       </c>
       <c r="F24">
-        <v>1.029562805370938</v>
+        <v>0.9157771212037067</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024025113228273</v>
+        <v>1.017428106196364</v>
       </c>
       <c r="J24">
-        <v>1.022660369978987</v>
+        <v>0.9670306860854597</v>
       </c>
       <c r="K24">
-        <v>1.027652712003357</v>
+        <v>0.9602765496287204</v>
       </c>
       <c r="L24">
-        <v>1.021385631782669</v>
+        <v>0.9682722520103187</v>
       </c>
       <c r="M24">
-        <v>1.032955485241466</v>
+        <v>0.931464464011722</v>
       </c>
       <c r="N24">
-        <v>1.011649866575904</v>
+        <v>0.993337927141163</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01849099112684</v>
+        <v>0.9531893797915455</v>
       </c>
       <c r="D25">
-        <v>1.026360423321499</v>
+        <v>0.962510712189813</v>
       </c>
       <c r="E25">
-        <v>1.019785731479789</v>
+        <v>0.9666857705929728</v>
       </c>
       <c r="F25">
-        <v>1.03235066496691</v>
+        <v>0.9428786326366336</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.024430056342645</v>
+        <v>1.026833236572476</v>
       </c>
       <c r="J25">
-        <v>1.024190055035852</v>
+        <v>0.9794017546037626</v>
       </c>
       <c r="K25">
-        <v>1.029442917045443</v>
+        <v>0.9757202854653469</v>
       </c>
       <c r="L25">
-        <v>1.022889454452621</v>
+        <v>0.9798242428097738</v>
       </c>
       <c r="M25">
-        <v>1.035414074134527</v>
+        <v>0.9564335147806632</v>
       </c>
       <c r="N25">
-        <v>1.012153222464592</v>
+        <v>0.9974063001095509</v>
       </c>
     </row>
   </sheetData>
